--- a/TEMP/EMPRESA_998/F A C T U R A S   E M I T I D A S.xlsx
+++ b/TEMP/EMPRESA_998/F A C T U R A S   E M I T I D A S.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>VACA PRIETO WALTER JALIL</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">09:14
+      <t xml:space="preserve">16:42
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">13-12-2022
+      <t xml:space="preserve">08-08-2023
 </t>
     </r>
     <r>
@@ -150,109 +150,28 @@
     <t>FA</t>
   </si>
   <si>
-    <t>001005</t>
-  </si>
-  <si>
-    <t>0212202201070216417900110010050000000541234567811</t>
-  </si>
-  <si>
-    <t>2022-12-02</t>
-  </si>
-  <si>
-    <t>0703092502</t>
+    <t>001003</t>
+  </si>
+  <si>
+    <t>0808202301070216417900110010030000013821234567811</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>CHINCHIN CALDERON ANGEL RODRIGO</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000531234567811</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>0921120473</t>
-  </si>
-  <si>
-    <t>FREDY PENAFIEL</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000521234567816</t>
-  </si>
-  <si>
-    <t>0501433098</t>
-  </si>
-  <si>
-    <t>FLAVIO ROSAS</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000511234567810</t>
-  </si>
-  <si>
-    <t>KATHERINE ACEVEDO</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000501234567815</t>
-  </si>
-  <si>
-    <t>FRANCISCO SEPULVEDA</t>
-  </si>
-  <si>
-    <t>0702164179001</t>
-  </si>
-  <si>
-    <t>FRANCISCO SUQUILLO</t>
-  </si>
-  <si>
-    <t>0604005819</t>
-  </si>
-  <si>
-    <t>ERIC VALLE</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000451234567818</t>
-  </si>
-  <si>
-    <t>JORGE PERALTA</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000441234567812</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000431234567817</t>
-  </si>
-  <si>
-    <t>0920871522</t>
-  </si>
-  <si>
-    <t>CARLOS PRIETO</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000411234567816</t>
-  </si>
-  <si>
-    <t>0704039304001</t>
-  </si>
-  <si>
-    <t>ANDREA MARGARITA PICON</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000401234567810</t>
-  </si>
-  <si>
-    <t>ANDRADE CUADROS TITO</t>
-  </si>
-  <si>
-    <t>0112202201070216417900110010050000000391234567815</t>
-  </si>
-  <si>
-    <t>AIDA JULIETA PROANO</t>
+    <t>JAVIER FARINANGO .</t>
+  </si>
+  <si>
+    <t>0808202301070216417900110010030000013811234567816</t>
+  </si>
+  <si>
+    <t>0808202301070216417900110010030000013801234567810</t>
+  </si>
+  <si>
+    <t>0808202301070216417900110010030000013791234567815</t>
   </si>
 </sst>
 </file>
@@ -707,7 +626,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="O3" sqref="O3"/>
@@ -773,7 +692,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">09:14
+            <t xml:space="preserve">16:42
 </t>
           </r>
           <r>
@@ -798,7 +717,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">13-12-2022
+            <t xml:space="preserve">08-08-2023
 </t>
           </r>
           <r>
@@ -894,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>1382</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -915,16 +834,16 @@
         <v>20.0</v>
       </c>
       <c r="L4">
-        <v>20.0</v>
-      </c>
-      <c r="M4" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="M4">
+        <v>1722214507001</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -938,16 +857,16 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>1381</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>2758.25</v>
+        <v>20.0</v>
       </c>
       <c r="H5">
         <v>0.0</v>
@@ -959,19 +878,19 @@
         <v>0.0</v>
       </c>
       <c r="K5">
-        <v>2758.25</v>
+        <v>20.0</v>
       </c>
       <c r="L5">
-        <v>2758.25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
+        <v>20.0</v>
+      </c>
+      <c r="M5">
+        <v>1722214507001</v>
       </c>
       <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -985,16 +904,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>1380</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>2758.25</v>
+        <v>20.0</v>
       </c>
       <c r="H6">
         <v>0.0</v>
@@ -1006,24 +925,24 @@
         <v>0.0</v>
       </c>
       <c r="K6">
-        <v>2758.25</v>
+        <v>20.0</v>
       </c>
       <c r="L6">
-        <v>2758.25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
+        <v>0.0</v>
+      </c>
+      <c r="M6">
+        <v>1722214507001</v>
       </c>
       <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
         <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1032,16 +951,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>1379</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>2758.25</v>
+        <v>22.0</v>
       </c>
       <c r="H7">
         <v>0.0</v>
@@ -1053,583 +972,19 @@
         <v>0.0</v>
       </c>
       <c r="K7">
-        <v>2758.25</v>
+        <v>22.0</v>
       </c>
       <c r="L7">
         <v>0.0</v>
       </c>
       <c r="M7">
-        <v>1723849392</v>
+        <v>1722214507001</v>
       </c>
       <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
         <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>2758.25</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>2758.25</v>
-      </c>
-      <c r="L8">
-        <v>2758.25</v>
-      </c>
-      <c r="M8">
-        <v>1707386973001</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>2758.25</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>0.0</v>
-      </c>
-      <c r="J9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>2758.25</v>
-      </c>
-      <c r="L9">
-        <v>2758.25</v>
-      </c>
-      <c r="M9">
-        <v>1709777500</v>
-      </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
-        <v>2758.25</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>2758.25</v>
-      </c>
-      <c r="L10">
-        <v>2758.25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>2758.25</v>
-      </c>
-      <c r="H11">
-        <v>0.0</v>
-      </c>
-      <c r="I11">
-        <v>0.0</v>
-      </c>
-      <c r="J11">
-        <v>0.0</v>
-      </c>
-      <c r="K11">
-        <v>2758.25</v>
-      </c>
-      <c r="L11">
-        <v>2758.25</v>
-      </c>
-      <c r="M11">
-        <v>1709777500</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>2758.25</v>
-      </c>
-      <c r="H12">
-        <v>0.0</v>
-      </c>
-      <c r="I12">
-        <v>0.0</v>
-      </c>
-      <c r="J12">
-        <v>0.0</v>
-      </c>
-      <c r="K12">
-        <v>2758.25</v>
-      </c>
-      <c r="L12">
-        <v>2758.25</v>
-      </c>
-      <c r="M12">
-        <v>1709777500</v>
-      </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13">
-        <v>23399997.66</v>
-      </c>
-      <c r="H13">
-        <v>0.0</v>
-      </c>
-      <c r="I13">
-        <v>0.0</v>
-      </c>
-      <c r="J13">
-        <v>0.0</v>
-      </c>
-      <c r="K13">
-        <v>23399997.66</v>
-      </c>
-      <c r="L13">
-        <v>23399997.66</v>
-      </c>
-      <c r="M13">
-        <v>1712698701</v>
-      </c>
-      <c r="N13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14">
-        <v>32399996.76</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>0.0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>32399996.76</v>
-      </c>
-      <c r="L14">
-        <v>32399996.76</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15">
-        <v>3239996.76</v>
-      </c>
-      <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>0.0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>3239996.76</v>
-      </c>
-      <c r="L15">
-        <v>3239996.76</v>
-      </c>
-      <c r="M15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16">
-        <v>3239999996.76</v>
-      </c>
-      <c r="H16">
-        <v>0.0</v>
-      </c>
-      <c r="I16">
-        <v>0.0</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>3239999996.76</v>
-      </c>
-      <c r="L16">
-        <v>3239999996.76</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17">
-        <v>339366.6</v>
-      </c>
-      <c r="H17">
-        <v>0.0</v>
-      </c>
-      <c r="I17">
-        <v>0.0</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>339366.6</v>
-      </c>
-      <c r="L17">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18">
-        <v>97200.0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>0.0</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>97200.0</v>
-      </c>
-      <c r="L18">
-        <v>0.0</v>
-      </c>
-      <c r="M18">
-        <v>1303379968</v>
-      </c>
-      <c r="N18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19">
-        <v>97200.0</v>
-      </c>
-      <c r="H19">
-        <v>0.0</v>
-      </c>
-      <c r="I19">
-        <v>0.0</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>97200.0</v>
-      </c>
-      <c r="L19">
-        <v>0.0</v>
-      </c>
-      <c r="M19">
-        <v>1701560920</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
